--- a/docs/StructureDefinition-Finding.xlsx
+++ b/docs/StructureDefinition-Finding.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="411">
   <si>
     <t>Path</t>
   </si>
@@ -543,13 +543,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://aehrc.github.io/genclipr-fhir-ig/ValueSet/AbnormalClinicalFindingCodes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -888,7 +882,13 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>http://aehrc.github.io/genclipr-fhir-ig/ValueSet/BodySiteCodes</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1232,16 +1232,6 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the component.code pattern</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1267,6 +1257,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1308,44 +1304,6 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="272741003"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://aehrc.github.io/genclipr-fhir-ig/ValueSet/LateralityCodes</t>
-  </si>
-  <si>
-    <t>severity</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="246112005"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>http://aehrc.github.io/genclipr-fhir-ig/ValueSet/SeverityCodes</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO71"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1504,7 +1462,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.3125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1527,10 +1485,10 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="61.72265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.91015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.52734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="39.640625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1539,7 +1497,7 @@
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="245.77734375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.734375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
@@ -3375,13 +3333,11 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3414,27 +3370,27 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3457,19 +3413,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3518,7 +3474,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3533,19 +3489,19 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3553,7 +3509,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3576,16 +3532,16 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3635,7 +3591,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3656,13 +3612,13 @@
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3670,11 +3626,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3693,19 +3649,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3754,7 +3710,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3769,19 +3725,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3789,11 +3745,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3812,19 +3768,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3873,7 +3829,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3888,19 +3844,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3908,7 +3864,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3931,16 +3887,16 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3990,7 +3946,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4011,13 +3967,13 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4025,7 +3981,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4048,17 +4004,17 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4107,7 +4063,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4122,19 +4078,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4142,7 +4098,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4165,19 +4121,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4206,7 +4162,7 @@
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4224,7 +4180,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4233,7 +4189,7 @@
         <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
@@ -4242,24 +4198,24 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4285,16 +4241,16 @@
         <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4319,14 +4275,14 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="X24" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4343,7 +4299,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4352,7 +4308,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4367,7 +4323,7 @@
         <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4378,11 +4334,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4404,16 +4360,16 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4438,13 +4394,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4462,7 +4418,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4480,24 +4436,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4520,19 +4476,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4581,7 +4537,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4602,21 +4558,21 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4630,7 +4586,7 @@
         <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
@@ -4642,13 +4598,13 @@
         <v>153</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4674,9 +4630,11 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="Y27" t="s" s="2">
         <v>278</v>
       </c>
@@ -4696,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4791,7 +4749,7 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="X28" t="s" s="2">
         <v>288</v>
@@ -5892,7 +5850,7 @@
         <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5963,7 +5921,7 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>357</v>
@@ -6011,7 +5969,7 @@
         <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6560,16 +6518,16 @@
         <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>382</v>
@@ -6593,10 +6551,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6607,7 +6565,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6722,7 +6680,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6839,7 +6797,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6958,7 +6916,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6984,13 +6942,13 @@
         <v>153</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>167</v>
@@ -7018,13 +6976,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>169</v>
+        <v>396</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>170</v>
+        <v>397</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7042,7 +7000,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>55</v>
@@ -7060,16 +7018,16 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7077,7 +7035,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7100,19 +7058,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7161,7 +7119,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7179,24 +7137,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7222,16 +7180,16 @@
         <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7256,14 +7214,14 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="X49" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7280,7 +7238,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7289,7 +7247,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7304,7 +7262,7 @@
         <v>98</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7315,11 +7273,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7341,16 +7299,16 @@
         <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7375,13 +7333,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7399,7 +7357,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7417,24 +7375,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7460,10 +7418,10 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>314</v>
@@ -7518,7 +7476,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7551,2376 +7509,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AB57" s="2"/>
-      <c r="AC57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X58" s="2"/>
-      <c r="Y58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AB67" s="2"/>
-      <c r="AC67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X68" s="2"/>
-      <c r="Y68" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO71">
+  <autoFilter ref="A1:AO51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9930,7 +7520,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
